--- a/Client/Disclosure Details.xlsx
+++ b/Client/Disclosure Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniarora\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Comparative-Analysis-for-Sustainability-Solution-Accelerator\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC952BE1-5408-4F47-9CC4-1F206E7413DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824AD6CA-256A-46E9-9F3E-44C52859854E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6DE62E15-28E5-40E0-BCC5-4A2DB6836778}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{6DE62E15-28E5-40E0-BCC5-4A2DB6836778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -71,16 +71,6 @@
     <t>by reference to GHG emission reduction targets (as required by Disclosure Requirement E1-4), an explanation of how the undertaking’s targets are compatible with the limiting of global warming to 1.5°C in line with the Paris Agreement;</t>
   </si>
   <si>
-    <t>A transition plan relates to the undertaking’s efforts in climate change mitigation. When disclosing its transition plan, the undertaking is expected to provide a high-level explanation of how it will adjust its strategy and business model to ensure compatibility with the transition to a sustainable economy and with the limiting of global warming to 1.5°C in line with the Paris Agreement (or an updated inter national agreement on climate change) and the objective of achieving climate neutrality by 2050 with no or limited overshoot as established in Regulation (EU) 2021/1119 (European Climate Law), and where applicable, how it will adjust its exposure to coal, and oil and gas-related activities. 
-Sectoral pathways have not yet been defined by the public policies for all sectors. Hence, the disclosure under paragraph 16 (a) on the compatibility of the transition plan with the objective of limiting global warming to 1.5°C should be understood as the disclosure of the undertaking’s GHG emissions reduction target. The disclosure under paragraph 16 (a) shall be benchmarked in relation to a pathway to 1.5°C. This benchmark should be based on either a sectoral decarbonisation pathway if available for the undertaking’s sector or an economy-wide scenario bearing in mind its limitations (i.e., it is a simple translation of emission reduction objectives from the state to undertaking level). This AR should be read also in conjunction with AR 26 and AR 27 and the sectoral decarbonisation pathways they refer to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disclosure of decarbonisation levers and key action </t>
-  </si>
-  <si>
-    <t>by reference to GHG emission reduction targets (as required by Disclosure Requirement E1-4) and the climate change mitigation actions (as required by Disclosure Requirement E1-3), an explanation of the decarbonisation levers identified, and key actions planned, including changes in the undertaking’s product and service portfolio and the adoption of new technologies in its own operations, or the upstream and/or downstream value chain;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Explanation of how transition plan is embedded in and aligned with overall business strategy and financial planning </t>
   </si>
   <si>
@@ -93,17 +83,6 @@
     <t>Total amount of substances of concern that are generated or used during production or that are procured</t>
   </si>
   <si>
-    <t>The undertaking shall disclose information on the production, use, distribution, commercialisation and import/export of substances of concern and substances of very high concern, on their own, in mixtures or in articles
-The disclosure required by paragraph shall include the total amounts of substances of concern that are generated or used during the production or that are procured, …</t>
-  </si>
-  <si>
-    <t>List of substances to be considered
-In order for the information to be complete, substances in the undertaking’s own operations and those procured shall be included (e.g., embedded in ingredients, semi- finished products, or the final product).
-The volume of pollutants shall be presented in mass units, for example tonnes or kilogrammes or other mass units appropriate for the volumes and type of pollutants being released.
-Contextual information
- The information provided under this Disclosure Requirement may refer to information the undertaking is already required to report under other existing legislation (i.e., Directive 2010/75/EU, Regulation (EC) No 166/2006 “E-PRTR”, etc.).</t>
-  </si>
-  <si>
     <t>Actions and resources related to resource use and circular economy</t>
   </si>
   <si>
@@ -111,14 +90,6 @@
   </si>
   <si>
     <t>The description of the resource use and circular economy-related action and resources allocated shall follow the principles defined in [draft] ESRS 2 DC-A Actions and resources in relation to material sustainability matters</t>
-  </si>
-  <si>
-    <t>When providing information under paragraph 17 and considering that resources are shared and that circular economy strategies may require collective actions, the undertaking may specify the actions taken to engage with its upstream and downstream value chain and/or its local network on the development of collaborations or initiatives increasing the circularity of products and materials.
-In particular, the undertaking may specify the following:
-(a) how it contributes to circular economy, including for instance smart waste collection systems;
-(b) the other stakeholders involved in the collective actions: competitors, suppliers, retailers, customers, other business partners, local communities and authorities, government agencies;
-(c) a description of the organisation of the collaboration or initiative, including the specific contribution ofthe undertaking and the roles of the different stakeholders in the project.
-The actions may cover the undertaking’s own operations and/or its upstream and downstream value chain.</t>
   </si>
   <si>
     <t>Description of higher levels of resource efficiency in use of technical and biological materials and water</t>
@@ -138,42 +109,19 @@
     <t>Description of application of circular design</t>
   </si>
   <si>
-    <t xml:space="preserve">(c)  application of circular design, leading to increased product durability and optimisation of use, and higher rates of: Reuse, Repair, Refurbishing, Remanufacture, Repurposing and Recycling. </t>
-  </si>
-  <si>
     <t>Description of application of circular business practices</t>
   </si>
   <si>
-    <t xml:space="preserve">(d)  application of circular business practices such as (i) value retention actions (maintenance, repair, refurbishing, remanufacturing, component harvesting, upgrading and reverse logistics, closed loop systems, second-hand retailing), (ii) value maximisation actions (product-service systems, collaborative and sharing economy business models), (iii) end-of-life actions (recycling, upcycling, extended </t>
-  </si>
-  <si>
     <t>Description of actions taken to prevent waste generation</t>
   </si>
   <si>
     <t xml:space="preserve">(e) actions taken to prevent waste generation in the undertaking’s upstream and downstream value chain; and </t>
   </si>
   <si>
-    <t>Description of Optimistation of waste management in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(f) optimistation of waste management in line with the waste hierarchy. </t>
-  </si>
-  <si>
     <t>Resource inflows</t>
   </si>
   <si>
     <t>Overall total weight of products and technical and biological materials used during the reporting period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an undertaking assesses that resource inflows is a material sustainability matter, it shall disclose the following information about the materials used to manufacture the undertaking’s products and services during the reporting period, in tonnes or kilogrammes: 
-(a)  the overall total weight of products and technical and biological materials used during the reporting period; </t>
-  </si>
-  <si>
-    <t>Resource inflows may cover the following categories: IT equipment, textiles, furniture, buildings, heavy machinery, mid-weight machinery, light machinery, heavy transport, mid- weight transport, light transport and warehousing equipment. With regard to materials, resource inflow indicators include raw materials, associated process materials, and semi- manufactured goods or parts.
-When the undertaking is subject to paragraph 31, it may also provide transparency on the materials that are sourced from by-products/waste stream (e.g., offcuts of a material that has not previously been in a product).
-The denominator of the percentage indicator required under paragraphs 31(b) and 31(c) is theoverall total weight of materials used during the reporting period.
-The reported usage data are to reflect the material in its original state, and not to be presentedwith further data manipulation, such as reporting it as “dry weight”.
-In cases where there is an overlap between categories of reused, recycled, the undertaking shall specify how double counting was avoided and the choices that were made.</t>
   </si>
   <si>
     <t>Percentage of biological materials (and biofuels used for non-energy purposes)</t>
@@ -202,16 +150,6 @@
   <si>
     <t>In addition to the information required by paragraph 40(a)iii of ESRS 2 General Disclosures, the undertaking shall disclose:
 (a) the total number of employees by head count, and breakdowns by gender and by country for countries in which the undertaking has 50 or more employees representing at least 10% of its total number of employees;</t>
-  </si>
-  <si>
-    <t>This Disclosure Requirement covers all employees who perform work for any of the undertaking’s entities included in its sustainability reporting.
-Providing a breakdown of employees by country gives insight into the distribution of activity across countries. The number of employees in each country is also a key trigger for many information, consultation and participation rights for workers and workers' representatives, both in the Union labour law acquis (for example, Directive 2009/38/EC of the European Parliament and of the Council 108 “European Works Councils Directive” and Directive 2002/14/EC of the European Parliament and of the Council109 “Information and Consultation Directive”) and in national law (for example, rights to establish a works council or to have board level employee representation). Providing a breakdown of employees by gender and type of employment relationship gives insight into gender representation across the undertaking. Additionally, providing a breakdown of employees by region gives insight into regional variations. A region can refer to a country or other geographiclocations, such as a region within a country or a world region.
-The undertaking shall disclose the requested disclosures in the following tabular formats (voir formats des tableaux p.181 des standards de loi)
-The definitions of permanent, temporary, non-guaranteed hours, full-time, and part-time employees differ between countries. If the undertaking has employees in more than one country, it shall use the definitions as per the national laws of the countries where the employees are based to calculate country-level data. The country-level data shall then be added up to calculate total numbers, disregarding differences in national legal definitions. Non-guaranteed hours employees are employed by the undertaking without a guarantee of a minimum or fixed number of working hours. The employee may need to make themselves available for work as required, but the undertaking is not contractually obliged to offer the employee a minimum or fixed number of working hours per day, week, or month. Casual employees, employees with zero-hour contracts, and on-call employees are examples that fallunder this category.
-Disclosing the number of employees at the end of the reporting period provides information forthat point in time, without capturing fluctuations during the reporting period. Disclosing these numbers in averages across the reporting period takes into account fluctuations during the reporting period.
-Quantitative data, such as the number of temporary or part-time employees, is unlikely to be sufficient on its own. For example, a high proportion of temporary or part-time employees could indicate a lack of employment security for employees, but it could equally signal workplace flexibility when offered as a voluntary choice. For this reason, the undertaking is required to disclose contextual information to help information users interpret the data. The undertaking can explain the reasons for temporary employment. An example of such a reason is the recruitment of employees to undertake work on a temporary or seasonal project or event. Another example is the standard practice of offering a temporary contract (for example, six months) to new employees before an offer of permanent employment is made. The undertaking may also explain the reasons for non- guaranteed hours employment.
-For the own employee turnover calculation, the undertaking shall calculate the aggregate of the number of employees who leave voluntarily or due to dismissal, retirement, or death in service. The undertaking shall use this number for the numerator of the employee turnover rate and may determine the denominator used to calculate this rate and describe its methodology.
-Where data is not available for detailed information, the undertaking shall use an estimation of the employee number or ratios, in accordance with ESRS 1, and clearly identify where theuse of estimates has taken place.</t>
   </si>
   <si>
     <t>Characteristics of undertaking's employees - information on employees by contract type, gender and region [table]</t>
@@ -258,9 +196,6 @@
   </si>
   <si>
     <t>(b) part-time employees, and breakdowns by gender and by region.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disclosure of cross-reference of information reported under paragragph 51 (a) to most representative number in financial statements </t>
   </si>
   <si>
     <t>(f) a cross-reference of the information reported under (a) above to the most representative number in the financial statements.</t>
@@ -824,9 +759,6 @@
 The details provided should offer a comprehensive context about the organization's size, structure, market presence, and location, which will aid stakeholders in understanding the scope and impact of the organization's activities on sustainability topics.</t>
   </si>
   <si>
-    <t>Entities may be included in the sustainability reporting based on their significance to the organizationâ€™s sustainability impacts, risks, and opportunities. The boundary of the sustainability reporting can be different from the boundary of the financial reporting, and thus it is important for the organization to clarify this aspect in its disclosure. The organization should also describe any processes or criteria used to determine which entities are included in the sustainability reporting.</t>
-  </si>
-  <si>
     <t>No specific disclosure annex provided.</t>
   </si>
   <si>
@@ -834,9 +766,6 @@
   </si>
   <si>
     <t>This disclosure aims to provide transparency into the rigor and credibility of the reported sustainability information. External assurance adds value for stakeholders by enhancing the reliability of the disclosed information. The assurance statement should be public to ensure it is accessible to all stakeholders.</t>
-  </si>
-  <si>
-    <t>Organizations are encouraged to include graphical representations of their value chain and map out their key suppliers and partners. This can help stakeholders better understand the organizationâ€™s business operations and the potential environmental and social impacts associated with each stage of the value chain.</t>
   </si>
   <si>
     <t>The organization is required to disclose data on its employees. Specific disclosure requirements include: 
@@ -927,9 +856,6 @@
     <t>Half-yearly or annual review of stakeholder engagement processes ensures the relevance and responsiveness to stakeholders' concerns and expectations. The organization is expected to contextualize the engagement based on the geographical, cultural, and operational landscape it operates within. It should also include the evolution of stakeholder engagement mechanisms over time and any planned future enhancements.</t>
   </si>
   <si>
-    <t>This disclosure focuses on the organization's connections with various associations and advocacy organizations. These memberships may reflect the organizationâ€™s interests, areas of influence, and its engagement with industry standards and policy development. The disclosure can include the name of the association, the role the organization plays, financial and non-financial commitments, and any significant positions held by the organization within these associations.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This disclosure requires details on management practices, including but not limited to policies, goals, resources, and monitoring practices. It is intended to provide stakeholders with comprehensive information about how material topics are managed within the organization._x000D_
 </t>
   </si>
@@ -948,6 +874,80 @@
   </si>
   <si>
     <t>CSRD</t>
+  </si>
+  <si>
+    <t>Entities may be included in the sustainability reporting based on their significance to the organization€™s sustainability impacts, risks, and opportunities. The boundary of the sustainability reporting can be different from the boundary of the financial reporting, and thus it is important for the organization to clarify this aspect in its disclosure. The organization should also describe any processes or criteria used to determine which entities are included in the sustainability reporting.</t>
+  </si>
+  <si>
+    <t>Organizations are encouraged to include graphical representations of their value chain and map out their key suppliers and partners. This can help stakeholders better understand the organization€™s business operations and the potential environmental and social impacts associated with each stage of the value chain.</t>
+  </si>
+  <si>
+    <t>This disclosure focuses on the organization's connections with various associations and advocacy organizations. These memberships may reflect the organization€™s interests, areas of influence, and its engagement with industry standards and policy development. The disclosure can include the name of the association, the role the organization plays, financial and non-financial commitments, and any significant positions held by the organization within these associations.</t>
+  </si>
+  <si>
+    <t>A transition plan relates to the undertaking’s efforts in climate change mitigation. When disclosing its transition plan, the undertaking is expected to provide a high-level explanation of how it will adjust its strategy and business model to ensure compatibility with the transition to a sustainable economy and with the limiting of global warming to 1.5°C in line with the Paris Agreement (or an updated inter national agreement on climate change) and the objective of achieving climate neutrality by 2050 with no or limited overshoot as established in Regulation (EU) 2021/1119 (European Climate Law), and where applicable, how it will adjust its exposure to coal, and oil and gas-related activities. 
+Sectoral pathways have not yet been defined by the public policies for all sectors. Hence, the disclosure under paragraph 16 (a) on the compatibility of the transition plan with the objective of limiting global warming to 1.5°C should be understood as the disclosure of the undertaking’s GHG emissions reduction target. The disclosure under paragraph 16 (a) shall be benchmarked in relation to a pathway to 1.5°C. This benchmark should be based on either a sectoral decarbonization pathway if available for the undertaking’s sector or an economy-wide scenario bearing in mind its limitations (i.e., it is a simple translation of emission reduction objectives from the state to undertaking level). This AR should be read also in conjunction with AR 26 and AR 27 and the sectoral decarbonization pathways they refer to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disclosure of decarbonization levers and key action </t>
+  </si>
+  <si>
+    <t>by reference to GHG emission reduction targets (as required by Disclosure Requirement E1-4) and the climate change mitigation actions (as required by Disclosure Requirement E1-3), an explanation of the decarbonization levers identified, and key actions planned, including changes in the undertaking’s product and service portfolio and the adoption of new technologies in its own operations, or the upstream and/or downstream value chain;</t>
+  </si>
+  <si>
+    <t>The undertaking shall disclose information on the production, use, distribution, commercialization and import/export of substances of concern and substances of very high concern, on their own, in mixtures or in articles
+The disclosure required by paragraph shall include the total amounts of substances of concern that are generated or used during the production or that are procured, …</t>
+  </si>
+  <si>
+    <t>When providing information under paragraph 17 and considering that resources are shared and that circular economy strategies may require collective actions, the undertaking may specify the actions taken to engage with its upstream and downstream value chain and/or its local network on the development of collaborations or initiatives increasing the circularity of products and materials.
+In particular, the undertaking may specify the following:
+(a) how it contributes to circular economy, including for instance smart waste collection systems;
+(b) the other stakeholders involved in the collective actions: competitors, suppliers, retailers, customers, other business partners, local communities and authorities, government agencies;
+(c) a description of the organization of the collaboration or initiative, including the specific contribution of the undertaking and the roles of the different stakeholders in the project.
+The actions may cover the undertaking’s own operations and/or its upstream and downstream value chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c)  application of circular design, leading to increased product durability and optimization of use, and higher rates of: Reuse, Repair, Refurbishing, Remanufacture, Repurposing and Recycling. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(d)  application of circular business practices such as (i) value retention actions (maintenance, repair, refurbishing, remanufacturing, component harvesting, upgrading and reverse logistics, closed loop systems, second-hand retailing), (ii) value maximization actions (product-service systems, collaborative and sharing economy business models), (iii) end-of-life actions (recycling, upcycling, extended </t>
+  </si>
+  <si>
+    <t>Description of Optimization of waste management in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(f) optimization of waste management in line with the waste hierarchy. </t>
+  </si>
+  <si>
+    <t>Resource inflows may cover the following categories: IT equipment, textiles, furniture, buildings, heavy machinery, mid-weight machinery, light machinery, heavy transport, mid- weight transport, light transport and warehousing equipment. With regard to materials, resource inflow indicators include raw materials, associated process materials, and semi- manufactured goods or parts.
+When the undertaking is subject to paragraph 31, it may also provide transparency on the materials that are sourced from by-products/waste stream (e.g., offcuts of a material that has not previously been in a product).
+The denominator of the percentage indicator required under paragraphs 31(b) and 31(c) is the overall total weight of materials used during the reporting period.
+The reported usage data are to reflect the material in its original state, and not to be presented with further data manipulation, such as reporting it as “dry weight”.
+In cases where there is an overlap between categories of reused, recycled, the undertaking shall specify how double counting was avoided and the choices that were made.</t>
+  </si>
+  <si>
+    <t>This Disclosure Requirement covers all employees who perform work for any of the undertaking’s entities included in its sustainability reporting.
+Providing a breakdown of employees by country gives insight into the distribution of activity across countries. The number of employees in each country is also a key trigger for many information, consultation and participation rights for workers and workers' representatives, both in the Union labor law acquis (for example, Directive 2009/38/EC of the European Parliament and of the Council 108 “European Works Councils Directive” and Directive 2002/14/EC of the European Parliament and of the Council109 “Information and Consultation Directive”) and in national law (for example, rights to establish a works council or to have board level employee representation). Providing a breakdown of employees by gender and type of employment relationship gives insight into gender representation across the undertaking. Additionally, providing a breakdown of employees by region gives insight into regional variations. A region can refer to a country or other geographic locations, such as a region within a country or a world region.
+The undertaking shall disclose the requested disclosures in the following tabular formats (voir formats des tableaux p.181 des standards de loi)
+The definitions of permanent, temporary, non-guaranteed hours, full-time, and part-time employees differ between countries. If the undertaking has employees in more than one country, it shall use the definitions as per the national laws of the countries where the employees are based to calculate country-level data. The country-level data shall then be added up to calculate total numbers, disregarding differences in national legal definitions. Non-guaranteed hours employees are employed by the undertaking without a guarantee of a minimum or fixed number of working hours. The employee may need to make themselves available for work as required, but the undertaking is not contractually obliged to offer the employee a minimum or fixed number of working hours per day, week, or month. Casual employees, employees with zero-hour contracts, and on-call employees are examples that fallunder this category.
+Disclosing the number of employees at the end of the reporting period provides information for that point in time, without capturing fluctuations during the reporting period. Disclosing these numbers in averages across the reporting period takes into account fluctuations during the reporting period.
+Quantitative data, such as the number of temporary or part-time employees, is unlikely to be sufficient on its own. For example, a high proportion of temporary or part-time employees could indicate a lack of employment security for employees, but it could equally signal workplace flexibility when offered as a voluntary choice. For this reason, the undertaking is required to disclose contextual information to help information users interpret the data. The undertaking can explain the reasons for temporary employment. An example of such a reason is the recruitment of employees to undertake work on a temporary or seasonal project or event. Another example is the standard practice of offering a temporary contract (for example, six months) to new employees before an offer of permanent employment is made. The undertaking may also explain the reasons for non- guaranteed hours employment.
+For the own employee turnover calculation, the undertaking shall calculate the aggregate of the number of employees who leave voluntarily or due to dismissal, retirement, or death in service. The undertaking shall use this number for the numerator of the employee turnover rate and may determine the denominator used to calculate this rate and describe its methodology.
+Where data is not available for detailed information, the undertaking shall use an estimation of the employee number or ratios, in accordance with ESRS 1, and clearly identify where the use of estimates has taken place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disclosure of cross-reference of information reported under paragraph 51 (a) to most representative number in financial statements </t>
+  </si>
+  <si>
+    <t>List of substances to be considered
+In order for the information to be complete, substances in the undertaking’s own operations and those procured shall be included (e.g., embedded in ingredients, semi- finished products, or the final product).
+The volume of pollutants shall be presented in mass units, for example tons or kilograms or other mass units appropriate for the volumes and type of pollutants being released.
+Contextual information
+ The information provided under this Disclosure Requirement may refer to information the undertaking is already required to report under other existing legislation (i.e., Directive 2010/75/EU, Regulation (EC) No 166/2006 “E-PRTR”, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an undertaking assesses that resource inflows is a material sustainability matter, it shall disclose the following information about the materials used to manufacture the undertaking’s products and services during the reporting period, in tons or kilograms: 
+(a)  the overall total weight of products and technical and biological materials used during the reporting period; </t>
   </si>
 </sst>
 </file>
@@ -1016,9 +1016,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -1064,6 +1061,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1137,12 +1137,12 @@
     <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B103A65A-E156-4E5B-9AA1-2B98669FA25C}" name="Type" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{4C49C956-42EA-4427-A70D-ACD7579A7793}" name="disclosureNumber" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F66AD848-CA98-44D8-B4AB-02431BE27083}" name="disclosureName" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8929F49A-141C-4ABD-A5A9-83B4D0B92686}" name="disclosureRequirement" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{73AEB35E-F55E-4193-930B-5462515B0E1D}" name="disclosureRequirementDetail" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FBAA9B2A-DF83-4F0F-BF26-93040C013D55}" name="disclosureAnnex" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B103A65A-E156-4E5B-9AA1-2B98669FA25C}" name="Type" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4C49C956-42EA-4427-A70D-ACD7579A7793}" name="disclosureNumber" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F66AD848-CA98-44D8-B4AB-02431BE27083}" name="disclosureName" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8929F49A-141C-4ABD-A5A9-83B4D0B92686}" name="disclosureRequirement" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{73AEB35E-F55E-4193-930B-5462515B0E1D}" name="disclosureRequirementDetail" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{FBAA9B2A-DF83-4F0F-BF26-93040C013D55}" name="disclosureAnnex" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1467,24 +1467,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E649225-4F44-4F27-A7EB-90C84ED9402B}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.84375" style="1" customWidth="1"/>
     <col min="3" max="3" width="45" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="74.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="97.26953125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="55.3828125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.23046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="97.23046875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1502,692 +1502,692 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="92.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="204" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    <row r="32" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="92" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    <row r="36" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="232" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -2202,12 +2202,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="204" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -2219,447 +2219,447 @@
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2673,6 +2673,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A7D07599C9F1045992B126C6823A775" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0645a86360a79aa3b148232035341125">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11cb353f-8416-45e0-b2e3-bf47c73734b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d477c570b02e8706e673ae02f4d343d" ns2:_="">
     <xsd:import namespace="11cb353f-8416-45e0-b2e3-bf47c73734b1"/>
@@ -2816,22 +2831,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7C878F-329E-4EF8-9EC2-55D6CAE96EDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="11cb353f-8416-45e0-b2e3-bf47c73734b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4667C8-EA68-4D8E-A341-79A11EBF1E99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D144A6B4-918C-4B40-A2E4-EEE5BE21D587}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2849,30 +2873,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4667C8-EA68-4D8E-A341-79A11EBF1E99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7C878F-329E-4EF8-9EC2-55D6CAE96EDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="11cb353f-8416-45e0-b2e3-bf47c73734b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
